--- a/sofaplayer/La_Liga/Real Madrid_stats.xlsx
+++ b/sofaplayer/La_Liga/Real Madrid_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL26"/>
+  <dimension ref="A1:DL24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5300,299 +5300,299 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>David Jiménez</t>
+          <t>Trent Alexander-Arnold</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1142689</v>
+        <v>795064</v>
       </c>
       <c r="E14" t="n">
-        <v>6.7</v>
+        <v>6.975</v>
       </c>
       <c r="F14" t="n">
+        <v>9</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>412</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0553</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1.36306066</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>416</v>
+      </c>
+      <c r="AC14" t="n">
         <v>2</v>
       </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>77</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1079</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0.0207777</v>
-      </c>
-      <c r="AB14" t="n">
+      <c r="AD14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>252</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>86.59793814433</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>291</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>80</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>172</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>98</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>23.404255319149</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>46.153846153846</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>45.454545454545</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>50</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>96</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>8</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>39</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>3</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>36</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>21</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>3</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>8</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>4</v>
+      </c>
+      <c r="CT14" t="n">
         <v>47</v>
       </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>97.142857142857</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>35</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>50</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>50</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ14" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="BR14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ14" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB14" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT14" t="n">
-        <v>3</v>
-      </c>
       <c r="CU14" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="CV14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CW14" t="n">
         <v>0</v>
@@ -5604,13 +5604,13 @@
         <v>0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="DA14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="DB14" t="n">
-        <v>100</v>
+        <v>62.5</v>
       </c>
       <c r="DC14" t="n">
         <v>0</v>
@@ -5622,19 +5622,19 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="DG14" t="n">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
       </c>
       <c r="DI14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ14" t="n">
-        <v>2545613</v>
+        <v>2156295</v>
       </c>
       <c r="DK14" t="inlineStr">
         <is>
@@ -5656,23 +5656,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Jorge Cestero</t>
+          <t>Antonio Rüdiger</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1590121</v>
+        <v>142622</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>6.9714285714286</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>605</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -5680,12 +5680,14 @@
       <c r="J15" t="n">
         <v>0</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0.0592</v>
+      </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -5726,39 +5728,41 @@
       <c r="Z15" t="n">
         <v>0</v>
       </c>
-      <c r="AA15" t="inlineStr"/>
+      <c r="AA15" t="n">
+        <v>0.17775403</v>
+      </c>
       <c r="AB15" t="n">
-        <v>1</v>
+        <v>513</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>93.47826086956501</v>
       </c>
       <c r="AG15" t="n">
-        <v>1</v>
+        <v>460</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>48.484848484848</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
@@ -5767,22 +5771,22 @@
         <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AS15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -5803,34 +5807,34 @@
         <v>0</v>
       </c>
       <c r="BA15" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BB15" t="n">
-        <v>0</v>
+        <v>64.705882352941</v>
       </c>
       <c r="BC15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>66.666666666667</v>
       </c>
       <c r="BE15" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BF15" t="n">
-        <v>0</v>
+        <v>63.157894736842</v>
       </c>
       <c r="BG15" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="BH15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK15" t="n">
         <v>0</v>
@@ -5842,31 +5846,31 @@
         <v>0</v>
       </c>
       <c r="BN15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BO15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BP15" t="n">
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0</v>
+        <v>48.8</v>
       </c>
       <c r="BR15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BS15" t="n">
         <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
@@ -5878,25 +5882,25 @@
         <v>0</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CA15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB15" t="n">
         <v>0</v>
       </c>
       <c r="CC15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="CD15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="CE15" t="n">
         <v>0</v>
       </c>
       <c r="CF15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG15" t="n">
         <v>0</v>
@@ -5908,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CK15" t="n">
         <v>0</v>
@@ -5932,19 +5936,19 @@
         <v>0</v>
       </c>
       <c r="CR15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CU15" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="CV15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CW15" t="n">
         <v>0</v>
@@ -5956,13 +5960,13 @@
         <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="DA15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DB15" t="n">
-        <v>0</v>
+        <v>44.444444444444</v>
       </c>
       <c r="DC15" t="n">
         <v>0</v>
@@ -5974,19 +5978,19 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="DG15" t="n">
-        <v>1</v>
+        <v>193</v>
       </c>
       <c r="DH15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DI15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DJ15" t="n">
-        <v>2664871</v>
+        <v>2172034</v>
       </c>
       <c r="DK15" t="inlineStr">
         <is>
@@ -6008,47 +6012,47 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Trent Alexander-Arnold</t>
+          <t>Dean Huijsen</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>795064</v>
+        <v>1176744</v>
       </c>
       <c r="E16" t="n">
-        <v>6.975</v>
+        <v>7.2882352941176</v>
       </c>
       <c r="F16" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G16" t="n">
+        <v>16</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1284</v>
+      </c>
+      <c r="I16" t="n">
         <v>5</v>
       </c>
-      <c r="H16" t="n">
-        <v>412</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0553</v>
+        <v>1.8013</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1284</v>
       </c>
       <c r="M16" t="n">
+        <v>16</v>
+      </c>
+      <c r="N16" t="n">
         <v>3</v>
       </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -6060,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -6072,277 +6076,277 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.36306066</v>
+        <v>1.01690113</v>
       </c>
       <c r="AB16" t="n">
-        <v>416</v>
+        <v>1219</v>
       </c>
       <c r="AC16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD16" t="n">
         <v>9</v>
       </c>
       <c r="AE16" t="n">
-        <v>252</v>
+        <v>914</v>
       </c>
       <c r="AF16" t="n">
-        <v>86.59793814433</v>
+        <v>88.824101068999</v>
       </c>
       <c r="AG16" t="n">
-        <v>291</v>
+        <v>1029</v>
       </c>
       <c r="AH16" t="n">
+        <v>408</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>506</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>180</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>62.616822429907</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT16" t="n">
         <v>80</v>
       </c>
-      <c r="AI16" t="n">
-        <v>172</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>98</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM16" t="n">
+      <c r="AU16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>62.037037037037</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>31</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>64.583333333333</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>36</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>60</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>121</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>5</v>
+      </c>
+      <c r="BO16" t="n">
         <v>11</v>
       </c>
-      <c r="AN16" t="n">
-        <v>23.404255319149</v>
-      </c>
-      <c r="AO16" t="n">
+      <c r="BP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>17</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>115</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>9</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>12</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>4</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>56</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>33</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ16" t="n">
         <v>8</v>
       </c>
-      <c r="AP16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>12</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>46.153846153846</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>45.454545454545</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>50</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>96</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO16" t="n">
-        <v>4</v>
-      </c>
-      <c r="BP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ16" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="BR16" t="n">
-        <v>8</v>
-      </c>
-      <c r="BS16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT16" t="n">
-        <v>39</v>
-      </c>
-      <c r="BU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV16" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA16" t="n">
+      <c r="CK16" t="n">
         <v>3</v>
       </c>
-      <c r="CB16" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC16" t="n">
-        <v>36</v>
-      </c>
-      <c r="CD16" t="n">
-        <v>21</v>
-      </c>
-      <c r="CE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF16" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ16" t="n">
+      <c r="CL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>9</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT16" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>41</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>24</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ16" t="n">
+        <v>107</v>
+      </c>
+      <c r="DA16" t="n">
+        <v>11</v>
+      </c>
+      <c r="DB16" t="n">
+        <v>52.380952380952</v>
+      </c>
+      <c r="DC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF16" t="n">
+        <v>433</v>
+      </c>
+      <c r="DG16" t="n">
+        <v>596</v>
+      </c>
+      <c r="DH16" t="n">
         <v>3</v>
       </c>
-      <c r="CK16" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR16" t="n">
-        <v>8</v>
-      </c>
-      <c r="CS16" t="n">
-        <v>4</v>
-      </c>
-      <c r="CT16" t="n">
-        <v>47</v>
-      </c>
-      <c r="CU16" t="n">
-        <v>14</v>
-      </c>
-      <c r="CV16" t="n">
-        <v>2</v>
-      </c>
-      <c r="CW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ16" t="n">
-        <v>40</v>
-      </c>
-      <c r="DA16" t="n">
-        <v>5</v>
-      </c>
-      <c r="DB16" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="DC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF16" t="n">
-        <v>87</v>
-      </c>
-      <c r="DG16" t="n">
-        <v>204</v>
-      </c>
-      <c r="DH16" t="n">
-        <v>0</v>
-      </c>
       <c r="DI16" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="DJ16" t="n">
-        <v>2156295</v>
+        <v>2156307</v>
       </c>
       <c r="DK16" t="inlineStr">
         <is>
@@ -6364,23 +6368,23 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Antonio Rüdiger</t>
+          <t>Daniel Carvajal</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>142622</v>
+        <v>138572</v>
       </c>
       <c r="E17" t="n">
-        <v>6.9714285714286</v>
+        <v>6.8428571428571</v>
       </c>
       <c r="F17" t="n">
         <v>7</v>
       </c>
       <c r="G17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
-        <v>605</v>
+        <v>376</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -6389,13 +6393,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0592</v>
+        <v>0.1561</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -6431,16 +6435,16 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.17775403</v>
+        <v>0.6957124099999999</v>
       </c>
       <c r="AB17" t="n">
-        <v>513</v>
+        <v>309</v>
       </c>
       <c r="AC17" t="n">
         <v>1</v>
@@ -6449,28 +6453,28 @@
         <v>2</v>
       </c>
       <c r="AE17" t="n">
-        <v>430</v>
+        <v>208</v>
       </c>
       <c r="AF17" t="n">
-        <v>93.47826086956501</v>
+        <v>91.228070175439</v>
       </c>
       <c r="AG17" t="n">
-        <v>460</v>
+        <v>228</v>
       </c>
       <c r="AH17" t="n">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="AI17" t="n">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="AJ17" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AK17" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AL17" t="n">
-        <v>48.484848484848</v>
+        <v>81.818181818182</v>
       </c>
       <c r="AM17" t="n">
         <v>0</v>
@@ -6485,19 +6489,19 @@
         <v>9</v>
       </c>
       <c r="AQ17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR17" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AS17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AT17" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AU17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV17" t="n">
         <v>0</v>
@@ -6506,43 +6510,43 @@
         <v>0</v>
       </c>
       <c r="AX17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BA17" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="BB17" t="n">
-        <v>64.705882352941</v>
+        <v>60</v>
       </c>
       <c r="BC17" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BD17" t="n">
+        <v>58.333333333333</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF17" t="n">
         <v>66.666666666667</v>
       </c>
-      <c r="BE17" t="n">
-        <v>12</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>63.157894736842</v>
-      </c>
       <c r="BG17" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BH17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BJ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK17" t="n">
         <v>0</v>
@@ -6554,16 +6558,16 @@
         <v>0</v>
       </c>
       <c r="BN17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BO17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BP17" t="n">
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>48.8</v>
+        <v>47.9</v>
       </c>
       <c r="BR17" t="n">
         <v>7</v>
@@ -6572,13 +6576,13 @@
         <v>0</v>
       </c>
       <c r="BT17" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
       </c>
       <c r="BV17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BW17" t="n">
         <v>0</v>
@@ -6593,22 +6597,22 @@
         <v>2</v>
       </c>
       <c r="CA17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC17" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="CD17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CE17" t="n">
         <v>0</v>
       </c>
       <c r="CF17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG17" t="n">
         <v>0</v>
@@ -6620,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CK17" t="n">
         <v>0</v>
@@ -6644,10 +6648,10 @@
         <v>0</v>
       </c>
       <c r="CR17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CS17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CT17" t="n">
         <v>2</v>
@@ -6656,25 +6660,25 @@
         <v>12</v>
       </c>
       <c r="CV17" t="n">
+        <v>2</v>
+      </c>
+      <c r="CW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>11</v>
+      </c>
+      <c r="DA17" t="n">
         <v>7</v>
       </c>
-      <c r="CW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ17" t="n">
-        <v>33</v>
-      </c>
-      <c r="DA17" t="n">
-        <v>4</v>
-      </c>
       <c r="DB17" t="n">
-        <v>44.444444444444</v>
+        <v>77.777777777778</v>
       </c>
       <c r="DC17" t="n">
         <v>0</v>
@@ -6686,19 +6690,19 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>267</v>
+        <v>104</v>
       </c>
       <c r="DG17" t="n">
-        <v>193</v>
+        <v>124</v>
       </c>
       <c r="DH17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DI17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DJ17" t="n">
-        <v>2172034</v>
+        <v>2156282</v>
       </c>
       <c r="DK17" t="inlineStr">
         <is>
@@ -6720,143 +6724,143 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Dean Huijsen</t>
+          <t>Éder Militão</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1176744</v>
+        <v>822519</v>
       </c>
       <c r="E18" t="n">
-        <v>7.2882352941176</v>
+        <v>7.3307692307692</v>
       </c>
       <c r="F18" t="n">
+        <v>13</v>
+      </c>
+      <c r="G18" t="n">
+        <v>12</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1002</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.366</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1002</v>
+      </c>
+      <c r="M18" t="n">
         <v>17</v>
       </c>
-      <c r="G18" t="n">
-        <v>16</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1284</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1.8013</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1284</v>
-      </c>
-      <c r="M18" t="n">
-        <v>16</v>
-      </c>
       <c r="N18" t="n">
+        <v>8</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5.8823529411765</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.69023406</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>828</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>613</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>90.81481481481499</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>675</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>345</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>268</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>78</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>52.173913043478</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>3</v>
       </c>
-      <c r="O18" t="n">
+      <c r="AR18" t="n">
+        <v>52</v>
+      </c>
+      <c r="AS18" t="n">
         <v>2</v>
       </c>
-      <c r="P18" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="n">
+      <c r="AT18" t="n">
+        <v>46</v>
+      </c>
+      <c r="AU18" t="n">
         <v>2</v>
       </c>
-      <c r="AA18" t="n">
-        <v>1.01690113</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1219</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>914</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>88.824101068999</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>1029</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>408</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>506</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>180</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>62.616822429907</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>4</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>80</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>4</v>
-      </c>
       <c r="AV18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW18" t="n">
         <v>0</v>
@@ -6868,73 +6872,73 @@
         <v>1</v>
       </c>
       <c r="AZ18" t="n">
-        <v>100</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BA18" t="n">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="BB18" t="n">
-        <v>62.037037037037</v>
+        <v>61.290322580645</v>
       </c>
       <c r="BC18" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BD18" t="n">
-        <v>64.583333333333</v>
+        <v>66.666666666667</v>
       </c>
       <c r="BE18" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="BF18" t="n">
-        <v>60</v>
+        <v>55.555555555556</v>
       </c>
       <c r="BG18" t="n">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="BH18" t="n">
         <v>13</v>
       </c>
       <c r="BI18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BJ18" t="n">
         <v>0</v>
       </c>
       <c r="BK18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BL18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM18" t="n">
         <v>0</v>
       </c>
       <c r="BN18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BO18" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BP18" t="n">
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>123.9</v>
+        <v>95.3</v>
       </c>
       <c r="BR18" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BS18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BT18" t="n">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="BU18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BW18" t="n">
         <v>0</v>
@@ -6946,16 +6950,16 @@
         <v>0</v>
       </c>
       <c r="BZ18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CA18" t="n">
         <v>4</v>
       </c>
       <c r="CB18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CC18" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="CD18" t="n">
         <v>33</v>
@@ -6976,43 +6980,43 @@
         <v>0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="CK18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>7</v>
+      </c>
+      <c r="CS18" t="n">
         <v>3</v>
       </c>
-      <c r="CL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR18" t="n">
-        <v>9</v>
-      </c>
-      <c r="CS18" t="n">
-        <v>1</v>
-      </c>
       <c r="CT18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU18" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="CV18" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="CW18" t="n">
         <v>0</v>
@@ -7024,13 +7028,13 @@
         <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="DA18" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="DB18" t="n">
-        <v>52.380952380952</v>
+        <v>70</v>
       </c>
       <c r="DC18" t="n">
         <v>0</v>
@@ -7042,19 +7046,19 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>433</v>
+        <v>357</v>
       </c>
       <c r="DG18" t="n">
-        <v>596</v>
+        <v>318</v>
       </c>
       <c r="DH18" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="DI18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="DJ18" t="n">
-        <v>2156307</v>
+        <v>2156287</v>
       </c>
       <c r="DK18" t="inlineStr">
         <is>
@@ -7076,149 +7080,149 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Daniel Carvajal</t>
+          <t>Raúl Asencio</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>138572</v>
+        <v>1156645</v>
       </c>
       <c r="E19" t="n">
-        <v>6.8428571428571</v>
+        <v>7.0294117647059</v>
       </c>
       <c r="F19" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G19" t="n">
+        <v>12</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1166</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.8017</v>
+      </c>
+      <c r="L19" t="n">
+        <v>583</v>
+      </c>
+      <c r="M19" t="n">
+        <v>12</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>16.666666666667</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.50564232</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>886</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
         <v>4</v>
       </c>
-      <c r="H19" t="n">
-        <v>376</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.1561</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
+      <c r="AE19" t="n">
+        <v>688</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>94.11764705882401</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>731</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>391</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>297</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>77</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>58.139534883721</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>35</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>42</v>
+      </c>
+      <c r="AU19" t="n">
         <v>2</v>
       </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0.6957124099999999</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>309</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>208</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>91.228070175439</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>228</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>98</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>81.818181818182</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>1</v>
-      </c>
       <c r="AV19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW19" t="n">
         <v>0</v>
       </c>
       <c r="AX19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY19" t="n">
         <v>1</v>
@@ -7227,148 +7231,148 @@
         <v>50</v>
       </c>
       <c r="BA19" t="n">
+        <v>48</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>62.337662337662</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>30</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="BE19" t="n">
         <v>18</v>
       </c>
-      <c r="BB19" t="n">
-        <v>60</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>14</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>58.333333333333</v>
-      </c>
-      <c r="BE19" t="n">
+      <c r="BF19" t="n">
+        <v>62.068965517241</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>58</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>6</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>9</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>119.5</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>17</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>43</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>10</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>30</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>18</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>7</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR19" t="n">
         <v>4</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>66.666666666667</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>33</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>4</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>7</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>20</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>2</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>10</v>
-      </c>
-      <c r="CD19" t="n">
-        <v>8</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>4</v>
-      </c>
-      <c r="CK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR19" t="n">
-        <v>2</v>
       </c>
       <c r="CS19" t="n">
         <v>2</v>
       </c>
       <c r="CT19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CU19" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="CV19" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="CW19" t="n">
         <v>0</v>
@@ -7380,13 +7384,13 @@
         <v>0</v>
       </c>
       <c r="CZ19" t="n">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="DA19" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="DB19" t="n">
-        <v>77.777777777778</v>
+        <v>76.92307692307701</v>
       </c>
       <c r="DC19" t="n">
         <v>0</v>
@@ -7398,19 +7402,19 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>104</v>
+        <v>406</v>
       </c>
       <c r="DG19" t="n">
-        <v>124</v>
+        <v>325</v>
       </c>
       <c r="DH19" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="DI19" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="DJ19" t="n">
-        <v>2156282</v>
+        <v>2261300</v>
       </c>
       <c r="DK19" t="inlineStr">
         <is>
@@ -7432,341 +7436,341 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Éder Militão</t>
+          <t>David Alaba</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>822519</v>
+        <v>66492</v>
       </c>
       <c r="E20" t="n">
-        <v>7.3307692307692</v>
+        <v>6.725</v>
       </c>
       <c r="F20" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G20" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1002</v>
+        <v>76</v>
       </c>
       <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.0329</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.02301306</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>80</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>64</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>91.428571428571</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
         <v>2</v>
       </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1.366</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1002</v>
-      </c>
-      <c r="M20" t="n">
-        <v>17</v>
-      </c>
-      <c r="N20" t="n">
-        <v>8</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5.8823529411765</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0.69023406</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>828</v>
-      </c>
-      <c r="AC20" t="n">
+      <c r="AS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>50</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>50</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>4</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>6</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>4</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>3</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>3</v>
+      </c>
+      <c r="CW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ20" t="n">
+        <v>5</v>
+      </c>
+      <c r="DA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF20" t="n">
+        <v>38</v>
+      </c>
+      <c r="DG20" t="n">
+        <v>32</v>
+      </c>
+      <c r="DH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI20" t="n">
         <v>2</v>
       </c>
-      <c r="AD20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>613</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>90.81481481481499</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>675</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>345</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>268</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>78</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>52.173913043478</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>52</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>46</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>57</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>61.290322580645</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>32</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>66.666666666667</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>25</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>55.555555555556</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>73</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>13</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>11</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN20" t="n">
-        <v>4</v>
-      </c>
-      <c r="BO20" t="n">
-        <v>7</v>
-      </c>
-      <c r="BP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>13</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>2</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>62</v>
-      </c>
-      <c r="BU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>7</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>13</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>4</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>60</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>33</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>6</v>
-      </c>
-      <c r="CK20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR20" t="n">
-        <v>7</v>
-      </c>
-      <c r="CS20" t="n">
-        <v>3</v>
-      </c>
-      <c r="CT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU20" t="n">
-        <v>36</v>
-      </c>
-      <c r="CV20" t="n">
-        <v>20</v>
-      </c>
-      <c r="CW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ20" t="n">
-        <v>69</v>
-      </c>
-      <c r="DA20" t="n">
-        <v>14</v>
-      </c>
-      <c r="DB20" t="n">
-        <v>70</v>
-      </c>
-      <c r="DC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF20" t="n">
-        <v>357</v>
-      </c>
-      <c r="DG20" t="n">
-        <v>318</v>
-      </c>
-      <c r="DH20" t="n">
-        <v>18</v>
-      </c>
-      <c r="DI20" t="n">
-        <v>10</v>
-      </c>
       <c r="DJ20" t="n">
-        <v>2156287</v>
+        <v>2261291</v>
       </c>
       <c r="DK20" t="inlineStr">
         <is>
@@ -7788,23 +7792,23 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Raúl Asencio</t>
+          <t>Álvaro Carreras</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1156645</v>
+        <v>1085081</v>
       </c>
       <c r="E21" t="n">
-        <v>7.0294117647059</v>
+        <v>7.0947368421053</v>
       </c>
       <c r="F21" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G21" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H21" t="n">
-        <v>1166</v>
+        <v>1701</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -7813,22 +7817,22 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8017</v>
+        <v>0.2913</v>
       </c>
       <c r="L21" t="n">
-        <v>583</v>
+        <v>850.5</v>
       </c>
       <c r="M21" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>16.666666666667</v>
+        <v>28.571428571429</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -7846,79 +7850,79 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1.18274583</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1687</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1114</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>90.12944983818799</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>1236</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>407</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>707</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>405</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>49.180327868852</v>
+      </c>
+      <c r="AM21" t="n">
         <v>2</v>
       </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0.50564232</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>886</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>688</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>94.11764705882401</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>731</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>391</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>297</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>77</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>58.139534883721</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>8.3333333333333</v>
       </c>
       <c r="AO21" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="AP21" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AR21" t="n">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="AS21" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AT21" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AU21" t="n">
         <v>2</v>
@@ -7933,196 +7937,196 @@
         <v>0</v>
       </c>
       <c r="AY21" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AZ21" t="n">
-        <v>50</v>
+        <v>46.666666666667</v>
       </c>
       <c r="BA21" t="n">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="BB21" t="n">
-        <v>62.337662337662</v>
+        <v>50.887573964497</v>
       </c>
       <c r="BC21" t="n">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="BD21" t="n">
-        <v>62.5</v>
+        <v>51.5625</v>
       </c>
       <c r="BE21" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BF21" t="n">
-        <v>62.068965517241</v>
+        <v>48.780487804878</v>
       </c>
       <c r="BG21" t="n">
-        <v>58</v>
+        <v>206</v>
       </c>
       <c r="BH21" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BI21" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="BJ21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BK21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BL21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM21" t="n">
         <v>0</v>
       </c>
       <c r="BN21" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BO21" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BP21" t="n">
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>119.5</v>
+        <v>134.8</v>
       </c>
       <c r="BR21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BS21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BT21" t="n">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="BU21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BW21" t="n">
         <v>0</v>
       </c>
       <c r="BX21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY21" t="n">
         <v>0</v>
       </c>
       <c r="BZ21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="CA21" t="n">
         <v>2</v>
       </c>
       <c r="CB21" t="n">
+        <v>15</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>33</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>17</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>11</v>
+      </c>
+      <c r="CK21" t="n">
         <v>3</v>
       </c>
-      <c r="CC21" t="n">
+      <c r="CL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>18</v>
+      </c>
+      <c r="CS21" t="n">
         <v>30</v>
       </c>
-      <c r="CD21" t="n">
-        <v>18</v>
-      </c>
-      <c r="CE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ21" t="n">
-        <v>7</v>
-      </c>
-      <c r="CK21" t="n">
-        <v>2</v>
-      </c>
-      <c r="CL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR21" t="n">
+      <c r="CT21" t="n">
+        <v>24</v>
+      </c>
+      <c r="CU21" t="n">
+        <v>83</v>
+      </c>
+      <c r="CV21" t="n">
+        <v>21</v>
+      </c>
+      <c r="CW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ21" t="n">
+        <v>61</v>
+      </c>
+      <c r="DA21" t="n">
+        <v>13</v>
+      </c>
+      <c r="DB21" t="n">
+        <v>46.428571428571</v>
+      </c>
+      <c r="DC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF21" t="n">
+        <v>446</v>
+      </c>
+      <c r="DG21" t="n">
+        <v>790</v>
+      </c>
+      <c r="DH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI21" t="n">
         <v>4</v>
       </c>
-      <c r="CS21" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT21" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU21" t="n">
-        <v>29</v>
-      </c>
-      <c r="CV21" t="n">
-        <v>11</v>
-      </c>
-      <c r="CW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ21" t="n">
-        <v>43</v>
-      </c>
-      <c r="DA21" t="n">
-        <v>10</v>
-      </c>
-      <c r="DB21" t="n">
-        <v>76.92307692307701</v>
-      </c>
-      <c r="DC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF21" t="n">
-        <v>406</v>
-      </c>
-      <c r="DG21" t="n">
-        <v>325</v>
-      </c>
-      <c r="DH21" t="n">
-        <v>22</v>
-      </c>
-      <c r="DI21" t="n">
-        <v>9</v>
-      </c>
       <c r="DJ21" t="n">
-        <v>2261300</v>
+        <v>2156327</v>
       </c>
       <c r="DK21" t="inlineStr">
         <is>
@@ -8144,23 +8148,23 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>David Alaba</t>
+          <t>Ferland Mendy</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>66492</v>
+        <v>792073</v>
       </c>
       <c r="E22" t="n">
-        <v>6.725</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -8168,17 +8172,15 @@
       <c r="J22" t="n">
         <v>0</v>
       </c>
-      <c r="K22" t="n">
-        <v>0.0329</v>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -8217,10 +8219,10 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.02301306</v>
+        <v>0.00094365</v>
       </c>
       <c r="AB22" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -8229,28 +8231,28 @@
         <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="AF22" t="n">
-        <v>91.428571428571</v>
+        <v>66.666666666667</v>
       </c>
       <c r="AG22" t="n">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AI22" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="AJ22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AM22" t="n">
         <v>0</v>
@@ -8268,217 +8270,217 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF22" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG22" t="n">
         <v>2</v>
       </c>
-      <c r="AS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>50</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>50</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>4</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>6</v>
-      </c>
-      <c r="BU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>4</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU22" t="n">
-        <v>3</v>
-      </c>
-      <c r="CV22" t="n">
-        <v>3</v>
-      </c>
-      <c r="CW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ22" t="n">
-        <v>5</v>
-      </c>
-      <c r="DA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF22" t="n">
-        <v>38</v>
-      </c>
-      <c r="DG22" t="n">
-        <v>32</v>
-      </c>
       <c r="DH22" t="n">
         <v>0</v>
       </c>
       <c r="DI22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DJ22" t="n">
-        <v>2261291</v>
+        <v>2573162</v>
       </c>
       <c r="DK22" t="inlineStr">
         <is>
@@ -8500,47 +8502,47 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Álvaro Carreras</t>
+          <t>Fran García</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1085081</v>
+        <v>851271</v>
       </c>
       <c r="E23" t="n">
-        <v>7.0947368421053</v>
+        <v>6.5571428571429</v>
       </c>
       <c r="F23" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G23" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H23" t="n">
-        <v>1701</v>
+        <v>418</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2913</v>
+        <v>0.7065</v>
       </c>
       <c r="L23" t="n">
-        <v>850.5</v>
+        <v>418</v>
       </c>
       <c r="M23" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N23" t="n">
         <v>2</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>28.571428571429</v>
+        <v>33.333333333333</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -8552,289 +8554,289 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
+        <v>1</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.29732927</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>287</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
         <v>2</v>
       </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1</v>
-      </c>
-      <c r="X23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1.18274583</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>1687</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>19</v>
-      </c>
       <c r="AE23" t="n">
-        <v>1114</v>
+        <v>178</v>
       </c>
       <c r="AF23" t="n">
-        <v>90.12944983818799</v>
+        <v>89.44723618090499</v>
       </c>
       <c r="AG23" t="n">
-        <v>1236</v>
+        <v>199</v>
       </c>
       <c r="AH23" t="n">
-        <v>407</v>
+        <v>62</v>
       </c>
       <c r="AI23" t="n">
-        <v>707</v>
+        <v>116</v>
       </c>
       <c r="AJ23" t="n">
-        <v>405</v>
+        <v>67</v>
       </c>
       <c r="AK23" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="AL23" t="n">
-        <v>49.180327868852</v>
+        <v>22.222222222222</v>
       </c>
       <c r="AM23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>17</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>51.515151515152</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>55.555555555556</v>
+      </c>
+      <c r="BE23" t="n">
         <v>2</v>
       </c>
-      <c r="AN23" t="n">
-        <v>8.3333333333333</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>30</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>28</v>
-      </c>
-      <c r="AQ23" t="n">
+      <c r="BF23" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>47</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="BR23" t="n">
         <v>7</v>
       </c>
-      <c r="AR23" t="n">
-        <v>119</v>
-      </c>
-      <c r="AS23" t="n">
+      <c r="BS23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>21</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>4</v>
+      </c>
+      <c r="CK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR23" t="n">
+        <v>2</v>
+      </c>
+      <c r="CS23" t="n">
+        <v>4</v>
+      </c>
+      <c r="CT23" t="n">
+        <v>15</v>
+      </c>
+      <c r="CU23" t="n">
         <v>16</v>
       </c>
-      <c r="AT23" t="n">
-        <v>49</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>46.666666666667</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>86</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>50.887573964497</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>66</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>51.5625</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>20</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>48.780487804878</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>206</v>
-      </c>
-      <c r="BH23" t="n">
-        <v>15</v>
-      </c>
-      <c r="BI23" t="n">
-        <v>25</v>
-      </c>
-      <c r="BJ23" t="n">
+      <c r="CV23" t="n">
         <v>4</v>
       </c>
-      <c r="BK23" t="n">
-        <v>4</v>
-      </c>
-      <c r="BL23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN23" t="n">
-        <v>10</v>
-      </c>
-      <c r="BO23" t="n">
-        <v>14</v>
-      </c>
-      <c r="BP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ23" t="n">
-        <v>134.8</v>
-      </c>
-      <c r="BR23" t="n">
-        <v>19</v>
-      </c>
-      <c r="BS23" t="n">
+      <c r="CW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ23" t="n">
+        <v>9</v>
+      </c>
+      <c r="DA23" t="n">
         <v>3</v>
       </c>
-      <c r="BT23" t="n">
-        <v>122</v>
-      </c>
-      <c r="BU23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV23" t="n">
+      <c r="DB23" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="DC23" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF23" t="n">
+        <v>70</v>
+      </c>
+      <c r="DG23" t="n">
+        <v>129</v>
+      </c>
+      <c r="DH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI23" t="n">
         <v>3</v>
       </c>
-      <c r="BW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ23" t="n">
-        <v>5</v>
-      </c>
-      <c r="CA23" t="n">
-        <v>2</v>
-      </c>
-      <c r="CB23" t="n">
-        <v>15</v>
-      </c>
-      <c r="CC23" t="n">
-        <v>33</v>
-      </c>
-      <c r="CD23" t="n">
-        <v>17</v>
-      </c>
-      <c r="CE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ23" t="n">
-        <v>11</v>
-      </c>
-      <c r="CK23" t="n">
-        <v>3</v>
-      </c>
-      <c r="CL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR23" t="n">
-        <v>18</v>
-      </c>
-      <c r="CS23" t="n">
-        <v>30</v>
-      </c>
-      <c r="CT23" t="n">
-        <v>24</v>
-      </c>
-      <c r="CU23" t="n">
-        <v>83</v>
-      </c>
-      <c r="CV23" t="n">
-        <v>21</v>
-      </c>
-      <c r="CW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ23" t="n">
-        <v>61</v>
-      </c>
-      <c r="DA23" t="n">
-        <v>13</v>
-      </c>
-      <c r="DB23" t="n">
-        <v>46.428571428571</v>
-      </c>
-      <c r="DC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF23" t="n">
-        <v>446</v>
-      </c>
-      <c r="DG23" t="n">
-        <v>790</v>
-      </c>
-      <c r="DH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI23" t="n">
-        <v>4</v>
-      </c>
       <c r="DJ23" t="n">
-        <v>2156327</v>
+        <v>2261302</v>
       </c>
       <c r="DK23" t="inlineStr">
         <is>
@@ -8856,23 +8858,23 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ferland Mendy</t>
+          <t>Thibaut Courtois</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>792073</v>
+        <v>70988</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>6.9782608695652</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2070</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -8927,226 +8929,226 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.00094365</v>
+        <v>0.02695967</v>
       </c>
       <c r="AB24" t="n">
+        <v>863</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>533</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>79.197622585438</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>673</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>486</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>47</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>88</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>38.938053097345</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>172</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>60</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>75</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>143</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>49</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>11</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>18</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>160.5</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>23</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>140</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC24" t="n">
+        <v>40</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>24</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG24" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>30</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>19</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>15</v>
+      </c>
+      <c r="CK24" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL24" t="n">
+        <v>3</v>
+      </c>
+      <c r="CM24" t="n">
+        <v>13</v>
+      </c>
+      <c r="CN24" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO24" t="n">
+        <v>13</v>
+      </c>
+      <c r="CP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU24" t="n">
         <v>4</v>
       </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>66.666666666667</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG24" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT24" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU24" t="n">
-        <v>0</v>
-      </c>
       <c r="CV24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW24" t="n">
         <v>0</v>
@@ -9158,13 +9160,13 @@
         <v>0</v>
       </c>
       <c r="CZ24" t="n">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="DA24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB24" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DC24" t="n">
         <v>0</v>
@@ -9173,739 +9175,29 @@
         <v>0</v>
       </c>
       <c r="DE24" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="DF24" t="n">
-        <v>1</v>
+        <v>514</v>
       </c>
       <c r="DG24" t="n">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="DH24" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="DI24" t="n">
         <v>0</v>
       </c>
       <c r="DJ24" t="n">
-        <v>2573162</v>
+        <v>2156283</v>
       </c>
       <c r="DK24" t="inlineStr">
         <is>
           <t>overall</t>
         </is>
       </c>
-      <c r="DL24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>La_Liga</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Real Madrid</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Fran García</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>851271</v>
-      </c>
-      <c r="E25" t="n">
-        <v>6.5571428571429</v>
-      </c>
-      <c r="F25" t="n">
-        <v>7</v>
-      </c>
-      <c r="G25" t="n">
-        <v>5</v>
-      </c>
-      <c r="H25" t="n">
-        <v>418</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.7065</v>
-      </c>
-      <c r="L25" t="n">
-        <v>418</v>
-      </c>
-      <c r="M25" t="n">
-        <v>3</v>
-      </c>
-      <c r="N25" t="n">
-        <v>2</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0.29732927</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>287</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>178</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>89.44723618090499</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>199</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>62</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>116</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>22.222222222222</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>25</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>17</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>51.515151515152</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>15</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>55.555555555556</v>
-      </c>
-      <c r="BE25" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF25" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="BG25" t="n">
-        <v>47</v>
-      </c>
-      <c r="BH25" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI25" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO25" t="n">
-        <v>4</v>
-      </c>
-      <c r="BP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ25" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="BR25" t="n">
-        <v>7</v>
-      </c>
-      <c r="BS25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT25" t="n">
-        <v>21</v>
-      </c>
-      <c r="BU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ25" t="n">
-        <v>2</v>
-      </c>
-      <c r="CA25" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB25" t="n">
-        <v>3</v>
-      </c>
-      <c r="CC25" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD25" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ25" t="n">
-        <v>4</v>
-      </c>
-      <c r="CK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR25" t="n">
-        <v>2</v>
-      </c>
-      <c r="CS25" t="n">
-        <v>4</v>
-      </c>
-      <c r="CT25" t="n">
-        <v>15</v>
-      </c>
-      <c r="CU25" t="n">
-        <v>16</v>
-      </c>
-      <c r="CV25" t="n">
-        <v>4</v>
-      </c>
-      <c r="CW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ25" t="n">
-        <v>9</v>
-      </c>
-      <c r="DA25" t="n">
-        <v>3</v>
-      </c>
-      <c r="DB25" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="DC25" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF25" t="n">
-        <v>70</v>
-      </c>
-      <c r="DG25" t="n">
-        <v>129</v>
-      </c>
-      <c r="DH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI25" t="n">
-        <v>3</v>
-      </c>
-      <c r="DJ25" t="n">
-        <v>2261302</v>
-      </c>
-      <c r="DK25" t="inlineStr">
-        <is>
-          <t>overall</t>
-        </is>
-      </c>
-      <c r="DL25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>La_Liga</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Real Madrid</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Thibaut Courtois</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>70988</v>
-      </c>
-      <c r="E26" t="n">
-        <v>6.9782608695652</v>
-      </c>
-      <c r="F26" t="n">
-        <v>23</v>
-      </c>
-      <c r="G26" t="n">
-        <v>23</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2070</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0.02695967</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>863</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>533</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>79.197622585438</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>673</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>486</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>47</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>88</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>38.938053097345</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>172</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>60</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>3</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>50</v>
-      </c>
-      <c r="BE26" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF26" t="n">
-        <v>75</v>
-      </c>
-      <c r="BG26" t="n">
-        <v>143</v>
-      </c>
-      <c r="BH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI26" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM26" t="n">
-        <v>49</v>
-      </c>
-      <c r="BN26" t="n">
-        <v>11</v>
-      </c>
-      <c r="BO26" t="n">
-        <v>18</v>
-      </c>
-      <c r="BP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ26" t="n">
-        <v>160.5</v>
-      </c>
-      <c r="BR26" t="n">
-        <v>23</v>
-      </c>
-      <c r="BS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT26" t="n">
-        <v>140</v>
-      </c>
-      <c r="BU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC26" t="n">
-        <v>40</v>
-      </c>
-      <c r="CD26" t="n">
-        <v>24</v>
-      </c>
-      <c r="CE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG26" t="n">
-        <v>2</v>
-      </c>
-      <c r="CH26" t="n">
-        <v>30</v>
-      </c>
-      <c r="CI26" t="n">
-        <v>19</v>
-      </c>
-      <c r="CJ26" t="n">
-        <v>15</v>
-      </c>
-      <c r="CK26" t="n">
-        <v>3</v>
-      </c>
-      <c r="CL26" t="n">
-        <v>3</v>
-      </c>
-      <c r="CM26" t="n">
-        <v>13</v>
-      </c>
-      <c r="CN26" t="n">
-        <v>12</v>
-      </c>
-      <c r="CO26" t="n">
-        <v>13</v>
-      </c>
-      <c r="CP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR26" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU26" t="n">
-        <v>4</v>
-      </c>
-      <c r="CV26" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ26" t="n">
-        <v>226</v>
-      </c>
-      <c r="DA26" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB26" t="n">
-        <v>100</v>
-      </c>
-      <c r="DC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE26" t="n">
-        <v>9</v>
-      </c>
-      <c r="DF26" t="n">
-        <v>514</v>
-      </c>
-      <c r="DG26" t="n">
-        <v>159</v>
-      </c>
-      <c r="DH26" t="n">
-        <v>106</v>
-      </c>
-      <c r="DI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ26" t="n">
-        <v>2156283</v>
-      </c>
-      <c r="DK26" t="inlineStr">
-        <is>
-          <t>overall</t>
-        </is>
-      </c>
-      <c r="DL26" t="n">
+      <c r="DL24" t="n">
         <v>0.2575</v>
       </c>
     </row>

--- a/sofaplayer/La_Liga/Real Madrid_stats.xlsx
+++ b/sofaplayer/La_Liga/Real Madrid_stats.xlsx
@@ -1391,52 +1391,52 @@
         <v>868812</v>
       </c>
       <c r="E3" t="n">
-        <v>7.3045454545455</v>
+        <v>7.3565217391304</v>
       </c>
       <c r="F3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="n">
-        <v>1678</v>
+        <v>1768</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>6.8329</v>
+        <v>8.4366</v>
       </c>
       <c r="L3" t="n">
-        <v>279.66666666667</v>
+        <v>221</v>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N3" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O3" t="n">
         <v>9</v>
       </c>
       <c r="P3" t="n">
-        <v>10</v>
+        <v>12.698412698413</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="X3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y3" t="n">
         <v>2</v>
@@ -1457,40 +1457,40 @@
         <v>5</v>
       </c>
       <c r="AA3" t="n">
-        <v>3.0418869</v>
+        <v>3.0857472</v>
       </c>
       <c r="AB3" t="n">
-        <v>1163</v>
+        <v>1218</v>
       </c>
       <c r="AC3" t="n">
         <v>6</v>
       </c>
       <c r="AD3" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AE3" t="n">
-        <v>579</v>
+        <v>612</v>
       </c>
       <c r="AF3" t="n">
-        <v>82.596291012839</v>
+        <v>82.70270270270299</v>
       </c>
       <c r="AG3" t="n">
-        <v>701</v>
+        <v>740</v>
       </c>
       <c r="AH3" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="n">
-        <v>496</v>
+        <v>527</v>
       </c>
       <c r="AJ3" t="n">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="AK3" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL3" t="n">
-        <v>67.56756756756801</v>
+        <v>67.5</v>
       </c>
       <c r="AM3" t="n">
         <v>8</v>
@@ -1508,7 +1508,7 @@
         <v>14</v>
       </c>
       <c r="AR3" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS3" t="n">
         <v>10</v>
@@ -1517,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="AU3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
@@ -1529,22 +1529,22 @@
         <v>0</v>
       </c>
       <c r="AY3" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AZ3" t="n">
-        <v>42.741935483871</v>
+        <v>42.51968503937</v>
       </c>
       <c r="BA3" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BB3" t="n">
-        <v>49.593495934959</v>
+        <v>49.019607843137</v>
       </c>
       <c r="BC3" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BD3" t="n">
-        <v>50</v>
+        <v>49.407114624506</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
@@ -1553,16 +1553,16 @@
         <v>0</v>
       </c>
       <c r="BG3" t="n">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="BH3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BI3" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="BJ3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BK3" t="n">
         <v>5</v>
@@ -1577,22 +1577,22 @@
         <v>3</v>
       </c>
       <c r="BO3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BP3" t="n">
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>160.7</v>
+        <v>169.2</v>
       </c>
       <c r="BR3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BS3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BT3" t="n">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
@@ -1601,28 +1601,28 @@
         <v>21</v>
       </c>
       <c r="BW3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BX3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BY3" t="n">
         <v>0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="CA3" t="n">
         <v>17</v>
       </c>
       <c r="CB3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="CC3" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="CD3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CE3" t="n">
         <v>0</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CK3" t="n">
         <v>3</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="CR3" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="CS3" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="CT3" t="n">
         <v>37</v>
       </c>
       <c r="CU3" t="n">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="CV3" t="n">
         <v>2</v>
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="CZ3" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="DA3" t="n">
         <v>11</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="DG3" t="n">
-        <v>602</v>
+        <v>637</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -2103,100 +2103,100 @@
         <v>1402716</v>
       </c>
       <c r="E5" t="n">
-        <v>6.65</v>
+        <v>6.6764705882353</v>
       </c>
       <c r="F5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>545</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
         <v>4</v>
       </c>
-      <c r="H5" t="n">
-        <v>455</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
+        <v>3.7805</v>
+      </c>
+      <c r="L5" t="n">
+        <v>136.25</v>
+      </c>
+      <c r="M5" t="n">
+        <v>12</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
         <v>3</v>
       </c>
-      <c r="K5" t="n">
-        <v>2.5312</v>
-      </c>
-      <c r="L5" t="n">
-        <v>151.66666666667</v>
-      </c>
-      <c r="M5" t="n">
-        <v>8</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.46918812</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>219</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
         <v>5</v>
       </c>
-      <c r="O5" t="n">
-        <v>3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.45719072</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>182</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>4</v>
-      </c>
       <c r="AE5" t="n">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="AF5" t="n">
-        <v>85.71428571428601</v>
+        <v>86.466165413534</v>
       </c>
       <c r="AG5" t="n">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="AH5" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AI5" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AK5" t="n">
         <v>1</v>
@@ -2211,16 +2211,16 @@
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>7</v>
       </c>
-      <c r="AQ5" t="n">
-        <v>4</v>
-      </c>
       <c r="AR5" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AS5" t="n">
         <v>1</v>
@@ -2229,7 +2229,7 @@
         <v>4</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV5" t="n">
         <v>0</v>
@@ -2241,37 +2241,37 @@
         <v>0</v>
       </c>
       <c r="AY5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ5" t="n">
-        <v>12.5</v>
+        <v>22.222222222222</v>
       </c>
       <c r="BA5" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="BB5" t="n">
-        <v>50</v>
+        <v>50.909090909091</v>
       </c>
       <c r="BC5" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD5" t="n">
-        <v>37.037037037037</v>
+        <v>39.393939393939</v>
       </c>
       <c r="BE5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BF5" t="n">
-        <v>68.421052631579</v>
+        <v>68.181818181818</v>
       </c>
       <c r="BG5" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="BH5" t="n">
         <v>5</v>
       </c>
       <c r="BI5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ5" t="n">
         <v>0</v>
@@ -2289,28 +2289,28 @@
         <v>0</v>
       </c>
       <c r="BO5" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>17</v>
+      </c>
+      <c r="BS5" t="n">
         <v>4</v>
       </c>
-      <c r="BP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>106.4</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>16</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>3</v>
-      </c>
       <c r="BT5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BW5" t="n">
         <v>0</v>
@@ -2322,38 +2322,38 @@
         <v>0</v>
       </c>
       <c r="BZ5" t="n">
+        <v>11</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB5" t="n">
         <v>7</v>
       </c>
-      <c r="CA5" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB5" t="n">
+      <c r="CC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ5" t="n">
         <v>4</v>
       </c>
-      <c r="CC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ5" t="n">
-        <v>3</v>
-      </c>
       <c r="CK5" t="n">
         <v>1</v>
       </c>
@@ -2376,19 +2376,19 @@
         <v>0</v>
       </c>
       <c r="CR5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CS5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CT5" t="n">
         <v>1</v>
       </c>
       <c r="CU5" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="CV5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CW5" t="n">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>4</v>
       </c>
       <c r="DB5" t="n">
-        <v>57.142857142857</v>
+        <v>50</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="DG5" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -2815,16 +2815,16 @@
         <v>1091116</v>
       </c>
       <c r="E7" t="n">
-        <v>7.1478260869565</v>
+        <v>7.1375</v>
       </c>
       <c r="F7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7" t="n">
-        <v>1442</v>
+        <v>1532</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -2833,13 +2833,13 @@
         <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>4.0728</v>
+        <v>4.2006</v>
       </c>
       <c r="L7" t="n">
-        <v>480.66666666667</v>
+        <v>510.66666666667</v>
       </c>
       <c r="M7" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N7" t="n">
         <v>15</v>
@@ -2848,7 +2848,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="n">
-        <v>8.1081081081081</v>
+        <v>7.6923076923077</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -2881,49 +2881,49 @@
         <v>7</v>
       </c>
       <c r="AA7" t="n">
-        <v>5.43838673</v>
+        <v>5.54188673</v>
       </c>
       <c r="AB7" t="n">
-        <v>1258</v>
+        <v>1316</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE7" t="n">
-        <v>856</v>
+        <v>892</v>
       </c>
       <c r="AF7" t="n">
-        <v>90.870488322718</v>
+        <v>90.74262461851499</v>
       </c>
       <c r="AG7" t="n">
-        <v>942</v>
+        <v>983</v>
       </c>
       <c r="AH7" t="n">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="AI7" t="n">
-        <v>602</v>
+        <v>622</v>
       </c>
       <c r="AJ7" t="n">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="AK7" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AL7" t="n">
-        <v>71.875</v>
+        <v>72.058823529412</v>
       </c>
       <c r="AM7" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AN7" t="n">
-        <v>31.521739130435</v>
+        <v>32.291666666667</v>
       </c>
       <c r="AO7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
@@ -2932,16 +2932,16 @@
         <v>7</v>
       </c>
       <c r="AR7" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AS7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT7" t="n">
         <v>8</v>
       </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
         <v>1</v>
@@ -2953,22 +2953,22 @@
         <v>1</v>
       </c>
       <c r="AY7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ7" t="n">
-        <v>58.620689655172</v>
+        <v>60</v>
       </c>
       <c r="BA7" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="BB7" t="n">
-        <v>53.846153846154</v>
+        <v>53.731343283582</v>
       </c>
       <c r="BC7" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="BD7" t="n">
-        <v>55.46218487395</v>
+        <v>55.284552845528</v>
       </c>
       <c r="BE7" t="n">
         <v>4</v>
@@ -2977,16 +2977,16 @@
         <v>36.363636363636</v>
       </c>
       <c r="BG7" t="n">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="BH7" t="n">
         <v>20</v>
       </c>
       <c r="BI7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BJ7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BK7" t="n">
         <v>1</v>
@@ -3001,28 +3001,28 @@
         <v>2</v>
       </c>
       <c r="BO7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BP7" t="n">
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>164.4</v>
+        <v>171.3</v>
       </c>
       <c r="BR7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS7" t="n">
         <v>10</v>
       </c>
       <c r="BT7" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
       </c>
       <c r="BV7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BW7" t="n">
         <v>0</v>
@@ -3037,67 +3037,67 @@
         <v>20</v>
       </c>
       <c r="CA7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="CB7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CC7" t="n">
+        <v>65</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>50</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>13</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>55</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>30</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>96</v>
+      </c>
+      <c r="CU7" t="n">
         <v>62</v>
-      </c>
-      <c r="CD7" t="n">
-        <v>47</v>
-      </c>
-      <c r="CE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ7" t="n">
-        <v>12</v>
-      </c>
-      <c r="CK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR7" t="n">
-        <v>54</v>
-      </c>
-      <c r="CS7" t="n">
-        <v>29</v>
-      </c>
-      <c r="CT7" t="n">
-        <v>92</v>
-      </c>
-      <c r="CU7" t="n">
-        <v>60</v>
       </c>
       <c r="CV7" t="n">
         <v>7</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="DA7" t="n">
         <v>19</v>
@@ -3130,16 +3130,16 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="DG7" t="n">
-        <v>674</v>
+        <v>698</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
       </c>
       <c r="DI7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ7" t="n">
         <v>2156331</v>
@@ -3171,40 +3171,40 @@
         <v>831808</v>
       </c>
       <c r="E8" t="n">
-        <v>7.1545454545455</v>
+        <v>7.204347826087</v>
       </c>
       <c r="F8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" t="n">
-        <v>1833</v>
+        <v>1906</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>1.5333</v>
+        <v>1.6496</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1906</v>
       </c>
       <c r="M8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>3.125</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -3237,34 +3237,34 @@
         <v>6</v>
       </c>
       <c r="AA8" t="n">
-        <v>3.01288709</v>
+        <v>3.41294609</v>
       </c>
       <c r="AB8" t="n">
-        <v>1561</v>
+        <v>1612</v>
       </c>
       <c r="AC8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD8" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AE8" t="n">
-        <v>1122</v>
+        <v>1161</v>
       </c>
       <c r="AF8" t="n">
-        <v>89.118347895155</v>
+        <v>89.23904688701001</v>
       </c>
       <c r="AG8" t="n">
-        <v>1259</v>
+        <v>1301</v>
       </c>
       <c r="AH8" t="n">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="AI8" t="n">
-        <v>735</v>
+        <v>762</v>
       </c>
       <c r="AJ8" t="n">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="AK8" t="n">
         <v>48</v>
@@ -3276,10 +3276,10 @@
         <v>4</v>
       </c>
       <c r="AN8" t="n">
-        <v>19.047619047619</v>
+        <v>18.181818181818</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AP8" t="n">
         <v>34</v>
@@ -3288,10 +3288,10 @@
         <v>9</v>
       </c>
       <c r="AR8" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AS8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT8" t="n">
         <v>40</v>
@@ -3309,22 +3309,22 @@
         <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ8" t="n">
-        <v>60.869565217391</v>
+        <v>62.5</v>
       </c>
       <c r="BA8" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BB8" t="n">
-        <v>62.393162393162</v>
+        <v>61.666666666667</v>
       </c>
       <c r="BC8" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BD8" t="n">
-        <v>62.068965517241</v>
+        <v>61.111111111111</v>
       </c>
       <c r="BE8" t="n">
         <v>19</v>
@@ -3333,10 +3333,10 @@
         <v>63.333333333333</v>
       </c>
       <c r="BG8" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="BH8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BI8" t="n">
         <v>6</v>
@@ -3357,22 +3357,22 @@
         <v>9</v>
       </c>
       <c r="BO8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BP8" t="n">
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>157.4</v>
+        <v>165.7</v>
       </c>
       <c r="BR8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BS8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BT8" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>3</v>
       </c>
       <c r="BZ8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CA8" t="n">
         <v>27</v>
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="CJ8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CK8" t="n">
         <v>3</v>
@@ -3444,16 +3444,16 @@
         <v>0</v>
       </c>
       <c r="CR8" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CS8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CT8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CU8" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="CV8" t="n">
         <v>11</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="DG8" t="n">
-        <v>838</v>
+        <v>867</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
@@ -3527,16 +3527,16 @@
         <v>835485</v>
       </c>
       <c r="E9" t="n">
-        <v>6.6466666666667</v>
+        <v>6.6375</v>
       </c>
       <c r="F9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -3593,10 +3593,10 @@
         <v>4</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.40555603</v>
+        <v>1.41862613</v>
       </c>
       <c r="AB9" t="n">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="AC9" t="n">
         <v>4</v>
@@ -3605,22 +3605,22 @@
         <v>12</v>
       </c>
       <c r="AE9" t="n">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="AF9" t="n">
-        <v>90.58823529411799</v>
+        <v>90.659340659341</v>
       </c>
       <c r="AG9" t="n">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="AH9" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AI9" t="n">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AJ9" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AK9" t="n">
         <v>2</v>
@@ -3638,13 +3638,13 @@
         <v>1</v>
       </c>
       <c r="AP9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ9" t="n">
         <v>5</v>
       </c>
       <c r="AR9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS9" t="n">
         <v>0</v>
@@ -3671,16 +3671,16 @@
         <v>60</v>
       </c>
       <c r="BA9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB9" t="n">
-        <v>38.888888888889</v>
+        <v>38.983050847458</v>
       </c>
       <c r="BC9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BD9" t="n">
-        <v>42.857142857143</v>
+        <v>42.592592592593</v>
       </c>
       <c r="BE9" t="n">
         <v>0</v>
@@ -3689,16 +3689,16 @@
         <v>0</v>
       </c>
       <c r="BG9" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="BH9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BK9" t="n">
         <v>1</v>
@@ -3719,16 +3719,16 @@
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>99.7</v>
+        <v>106.2</v>
       </c>
       <c r="BR9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS9" t="n">
         <v>4</v>
       </c>
       <c r="BT9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>2</v>
       </c>
       <c r="CB9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CC9" t="n">
         <v>5</v>
@@ -3809,7 +3809,7 @@
         <v>7</v>
       </c>
       <c r="CU9" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="CV9" t="n">
         <v>5</v>
@@ -3827,10 +3827,10 @@
         <v>2</v>
       </c>
       <c r="DA9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DB9" t="n">
-        <v>42.857142857143</v>
+        <v>50</v>
       </c>
       <c r="DC9" t="n">
         <v>0</v>
@@ -3842,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="DG9" t="n">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -3883,16 +3883,16 @@
         <v>973887</v>
       </c>
       <c r="E10" t="n">
-        <v>7.0875</v>
+        <v>7.0647058823529</v>
       </c>
       <c r="F10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
-        <v>915</v>
+        <v>988</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -3904,7 +3904,7 @@
         <v>1.0604</v>
       </c>
       <c r="L10" t="n">
-        <v>915</v>
+        <v>988</v>
       </c>
       <c r="M10" t="n">
         <v>10</v>
@@ -3949,58 +3949,58 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.29408598</v>
+        <v>1.32439628</v>
       </c>
       <c r="AB10" t="n">
-        <v>836</v>
+        <v>899</v>
       </c>
       <c r="AC10" t="n">
         <v>1</v>
       </c>
       <c r="AD10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>651</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>91.949152542373</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>708</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>254</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>397</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>198</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>71.111111111111</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
         <v>9</v>
       </c>
-      <c r="AE10" t="n">
-        <v>602</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>92.048929663609</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>654</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>234</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>368</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>180</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>71.428571428571</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>8</v>
-      </c>
       <c r="AP10" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AQ10" t="n">
         <v>6</v>
       </c>
       <c r="AR10" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS10" t="n">
         <v>9</v>
@@ -4021,37 +4021,37 @@
         <v>0</v>
       </c>
       <c r="AY10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ10" t="n">
-        <v>68.75</v>
+        <v>70.58823529411799</v>
       </c>
       <c r="BA10" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="BB10" t="n">
-        <v>64.754098360656</v>
+        <v>64.12213740458</v>
       </c>
       <c r="BC10" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="BD10" t="n">
-        <v>64.864864864865</v>
+        <v>64.705882352941</v>
       </c>
       <c r="BE10" t="n">
         <v>7</v>
       </c>
       <c r="BF10" t="n">
-        <v>63.636363636364</v>
+        <v>58.333333333333</v>
       </c>
       <c r="BG10" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="BH10" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BI10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BJ10" t="n">
         <v>0</v>
@@ -4069,22 +4069,22 @@
         <v>2</v>
       </c>
       <c r="BO10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP10" t="n">
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>113.4</v>
+        <v>120.1</v>
       </c>
       <c r="BR10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS10" t="n">
         <v>1</v>
       </c>
       <c r="BT10" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>6</v>
       </c>
       <c r="CC10" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="CD10" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="CE10" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CK10" t="n">
         <v>3</v>
@@ -4156,19 +4156,19 @@
         <v>0</v>
       </c>
       <c r="CR10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CS10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CT10" t="n">
         <v>2</v>
       </c>
       <c r="CU10" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="CV10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CW10" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="DA10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="DB10" t="n">
-        <v>57.142857142857</v>
+        <v>56.818181818182</v>
       </c>
       <c r="DC10" t="n">
         <v>0</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="DG10" t="n">
-        <v>412</v>
+        <v>445</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4595,16 +4595,16 @@
         <v>859025</v>
       </c>
       <c r="E12" t="n">
-        <v>7.225</v>
+        <v>7.2428571428571</v>
       </c>
       <c r="F12" t="n">
+        <v>21</v>
+      </c>
+      <c r="G12" t="n">
         <v>20</v>
       </c>
-      <c r="G12" t="n">
-        <v>19</v>
-      </c>
       <c r="H12" t="n">
-        <v>1656</v>
+        <v>1735</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -4661,10 +4661,10 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.18184245</v>
+        <v>2.39962145</v>
       </c>
       <c r="AB12" t="n">
-        <v>1427</v>
+        <v>1490</v>
       </c>
       <c r="AC12" t="n">
         <v>4</v>
@@ -4673,28 +4673,28 @@
         <v>18</v>
       </c>
       <c r="AE12" t="n">
-        <v>1098</v>
+        <v>1149</v>
       </c>
       <c r="AF12" t="n">
-        <v>91.423813488759</v>
+        <v>91.626794258373</v>
       </c>
       <c r="AG12" t="n">
-        <v>1201</v>
+        <v>1254</v>
       </c>
       <c r="AH12" t="n">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="AI12" t="n">
-        <v>651</v>
+        <v>681</v>
       </c>
       <c r="AJ12" t="n">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="AK12" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AL12" t="n">
-        <v>57.894736842105</v>
+        <v>58.730158730159</v>
       </c>
       <c r="AM12" t="n">
         <v>1</v>
@@ -4703,22 +4703,22 @@
         <v>25</v>
       </c>
       <c r="AO12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP12" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AQ12" t="n">
         <v>6</v>
       </c>
       <c r="AR12" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AS12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT12" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AU12" t="n">
         <v>7</v>
@@ -4739,28 +4739,28 @@
         <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="BB12" t="n">
-        <v>70.51282051282099</v>
+        <v>69.879518072289</v>
       </c>
       <c r="BC12" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="BD12" t="n">
-        <v>65.934065934066</v>
+        <v>65.979381443299</v>
       </c>
       <c r="BE12" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="BF12" t="n">
-        <v>76.92307692307701</v>
+        <v>75.36231884058</v>
       </c>
       <c r="BG12" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="BH12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BI12" t="n">
         <v>16</v>
@@ -4781,22 +4781,22 @@
         <v>8</v>
       </c>
       <c r="BO12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BP12" t="n">
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>144.5</v>
+        <v>152.1</v>
       </c>
       <c r="BR12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS12" t="n">
         <v>0</v>
       </c>
       <c r="BT12" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
@@ -4823,10 +4823,10 @@
         <v>1</v>
       </c>
       <c r="CC12" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="CD12" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="CE12" t="n">
         <v>0</v>
@@ -4844,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CK12" t="n">
         <v>2</v>
@@ -4877,10 +4877,10 @@
         <v>4</v>
       </c>
       <c r="CU12" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="CV12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CW12" t="n">
         <v>0</v>
@@ -4892,13 +4892,13 @@
         <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="DA12" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="DB12" t="n">
-        <v>56.818181818182</v>
+        <v>58.333333333333</v>
       </c>
       <c r="DC12" t="n">
         <v>0</v>
@@ -4910,10 +4910,10 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="DG12" t="n">
-        <v>723</v>
+        <v>755</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
@@ -4951,16 +4951,16 @@
         <v>547838</v>
       </c>
       <c r="E13" t="n">
-        <v>7.0416666666667</v>
+        <v>7.0153846153846</v>
       </c>
       <c r="F13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" t="n">
         <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.67640259</v>
+        <v>0.6808713199999999</v>
       </c>
       <c r="AB13" t="n">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -5029,22 +5029,22 @@
         <v>9</v>
       </c>
       <c r="AE13" t="n">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="AF13" t="n">
-        <v>92.636579572447</v>
+        <v>92.84064665127001</v>
       </c>
       <c r="AG13" t="n">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="AH13" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AI13" t="n">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="AJ13" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AK13" t="n">
         <v>15</v>
@@ -5068,7 +5068,7 @@
         <v>2</v>
       </c>
       <c r="AR13" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AS13" t="n">
         <v>7</v>
@@ -5095,16 +5095,16 @@
         <v>23.076923076923</v>
       </c>
       <c r="BA13" t="n">
+        <v>37</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>57.8125</v>
+      </c>
+      <c r="BC13" t="n">
         <v>36</v>
       </c>
-      <c r="BB13" t="n">
-        <v>57.142857142857</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>35</v>
-      </c>
       <c r="BD13" t="n">
-        <v>59.322033898305</v>
+        <v>60</v>
       </c>
       <c r="BE13" t="n">
         <v>1</v>
@@ -5119,7 +5119,7 @@
         <v>6</v>
       </c>
       <c r="BI13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BJ13" t="n">
         <v>0</v>
@@ -5143,10 +5143,10 @@
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>84.5</v>
+        <v>91.2</v>
       </c>
       <c r="BR13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BS13" t="n">
         <v>0</v>
@@ -5266,10 +5266,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="DG13" t="n">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -5307,16 +5307,16 @@
         <v>795064</v>
       </c>
       <c r="E14" t="n">
-        <v>6.975</v>
+        <v>7.0111111111111</v>
       </c>
       <c r="F14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H14" t="n">
-        <v>412</v>
+        <v>472</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -5370,52 +5370,52 @@
         <v>1</v>
       </c>
       <c r="Z14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.36306066</v>
+        <v>1.48923466</v>
       </c>
       <c r="AB14" t="n">
-        <v>416</v>
+        <v>476</v>
       </c>
       <c r="AC14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>293</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>86.430678466077</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>339</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>192</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>109</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>54.901960784314</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>25.490196078431</v>
+      </c>
+      <c r="AO14" t="n">
         <v>9</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>252</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>86.59793814433</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>291</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>172</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>98</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>23.404255319149</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>8</v>
       </c>
       <c r="AP14" t="n">
         <v>8</v>
@@ -5424,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AS14" t="n">
         <v>5</v>
@@ -5448,19 +5448,19 @@
         <v>2</v>
       </c>
       <c r="AZ14" t="n">
-        <v>50</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BA14" t="n">
         <v>12</v>
       </c>
       <c r="BB14" t="n">
-        <v>46.153846153846</v>
+        <v>42.857142857143</v>
       </c>
       <c r="BC14" t="n">
         <v>10</v>
       </c>
       <c r="BD14" t="n">
-        <v>45.454545454545</v>
+        <v>41.666666666667</v>
       </c>
       <c r="BE14" t="n">
         <v>2</v>
@@ -5469,7 +5469,7 @@
         <v>50</v>
       </c>
       <c r="BG14" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="BH14" t="n">
         <v>4</v>
@@ -5493,22 +5493,22 @@
         <v>0</v>
       </c>
       <c r="BO14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BP14" t="n">
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>55.8</v>
+        <v>63.1</v>
       </c>
       <c r="BR14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BS14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BT14" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="BU14" t="n">
         <v>0</v>
@@ -5535,10 +5535,10 @@
         <v>1</v>
       </c>
       <c r="CC14" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="CD14" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="CE14" t="n">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CK14" t="n">
         <v>1</v>
@@ -5580,16 +5580,16 @@
         <v>0</v>
       </c>
       <c r="CR14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CS14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CT14" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="CU14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="CV14" t="n">
         <v>2</v>
@@ -5604,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="DA14" t="n">
         <v>5</v>
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="DG14" t="n">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
@@ -5663,16 +5663,16 @@
         <v>142622</v>
       </c>
       <c r="E15" t="n">
-        <v>6.9714285714286</v>
+        <v>6.8625</v>
       </c>
       <c r="F15" t="n">
+        <v>8</v>
+      </c>
+      <c r="G15" t="n">
         <v>7</v>
       </c>
-      <c r="G15" t="n">
-        <v>6</v>
-      </c>
       <c r="H15" t="n">
-        <v>605</v>
+        <v>665</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -5681,13 +5681,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0592</v>
+        <v>0.0795</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -5729,10 +5729,10 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.17775403</v>
+        <v>0.18407161</v>
       </c>
       <c r="AB15" t="n">
-        <v>513</v>
+        <v>568</v>
       </c>
       <c r="AC15" t="n">
         <v>1</v>
@@ -5741,28 +5741,28 @@
         <v>2</v>
       </c>
       <c r="AE15" t="n">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="AF15" t="n">
-        <v>93.47826086956501</v>
+        <v>93.190661478599</v>
       </c>
       <c r="AG15" t="n">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="AH15" t="n">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="AI15" t="n">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="AJ15" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK15" t="n">
         <v>16</v>
       </c>
       <c r="AL15" t="n">
-        <v>48.484848484848</v>
+        <v>43.243243243243</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
@@ -5780,7 +5780,7 @@
         <v>2</v>
       </c>
       <c r="AR15" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AS15" t="n">
         <v>1</v>
@@ -5810,13 +5810,13 @@
         <v>22</v>
       </c>
       <c r="BB15" t="n">
-        <v>64.705882352941</v>
+        <v>62.857142857143</v>
       </c>
       <c r="BC15" t="n">
         <v>10</v>
       </c>
       <c r="BD15" t="n">
-        <v>66.666666666667</v>
+        <v>62.5</v>
       </c>
       <c r="BE15" t="n">
         <v>12</v>
@@ -5825,10 +5825,10 @@
         <v>63.157894736842</v>
       </c>
       <c r="BG15" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="BH15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI15" t="n">
         <v>1</v>
@@ -5849,41 +5849,41 @@
         <v>3</v>
       </c>
       <c r="BO15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP15" t="n">
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>48.8</v>
+        <v>54.9</v>
       </c>
       <c r="BR15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS15" t="n">
         <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
       </c>
       <c r="BV15" t="n">
+        <v>4</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ15" t="n">
         <v>3</v>
       </c>
-      <c r="BW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ15" t="n">
-        <v>2</v>
-      </c>
       <c r="CA15" t="n">
         <v>1</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="CC15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CD15" t="n">
         <v>9</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CK15" t="n">
         <v>0</v>
@@ -5945,7 +5945,7 @@
         <v>2</v>
       </c>
       <c r="CU15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CV15" t="n">
         <v>7</v>
@@ -5960,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="DA15" t="n">
         <v>4</v>
@@ -5978,13 +5978,13 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="DG15" t="n">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="DH15" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="DI15" t="n">
         <v>2</v>
@@ -6019,16 +6019,16 @@
         <v>1176744</v>
       </c>
       <c r="E16" t="n">
-        <v>7.2882352941176</v>
+        <v>7.2388888888889</v>
       </c>
       <c r="F16" t="n">
+        <v>18</v>
+      </c>
+      <c r="G16" t="n">
         <v>17</v>
       </c>
-      <c r="G16" t="n">
-        <v>16</v>
-      </c>
       <c r="H16" t="n">
-        <v>1284</v>
+        <v>1374</v>
       </c>
       <c r="I16" t="n">
         <v>5</v>
@@ -6040,7 +6040,7 @@
         <v>1.8013</v>
       </c>
       <c r="L16" t="n">
-        <v>1284</v>
+        <v>1374</v>
       </c>
       <c r="M16" t="n">
         <v>16</v>
@@ -6085,10 +6085,10 @@
         <v>2</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.01690113</v>
+        <v>1.03091113</v>
       </c>
       <c r="AB16" t="n">
-        <v>1219</v>
+        <v>1302</v>
       </c>
       <c r="AC16" t="n">
         <v>1</v>
@@ -6097,28 +6097,28 @@
         <v>9</v>
       </c>
       <c r="AE16" t="n">
-        <v>914</v>
+        <v>984</v>
       </c>
       <c r="AF16" t="n">
-        <v>88.824101068999</v>
+        <v>89.21124206709</v>
       </c>
       <c r="AG16" t="n">
-        <v>1029</v>
+        <v>1103</v>
       </c>
       <c r="AH16" t="n">
-        <v>408</v>
+        <v>445</v>
       </c>
       <c r="AI16" t="n">
-        <v>506</v>
+        <v>539</v>
       </c>
       <c r="AJ16" t="n">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AK16" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AL16" t="n">
-        <v>62.616822429907</v>
+        <v>63.392857142857</v>
       </c>
       <c r="AM16" t="n">
         <v>0</v>
@@ -6127,22 +6127,22 @@
         <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
         <v>1</v>
       </c>
       <c r="AR16" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AS16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT16" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AU16" t="n">
         <v>4</v>
@@ -6154,7 +6154,7 @@
         <v>0</v>
       </c>
       <c r="AX16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY16" t="n">
         <v>1</v>
@@ -6163,16 +6163,16 @@
         <v>100</v>
       </c>
       <c r="BA16" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="BB16" t="n">
-        <v>62.037037037037</v>
+        <v>61.607142857143</v>
       </c>
       <c r="BC16" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="BD16" t="n">
-        <v>64.583333333333</v>
+        <v>63.461538461538</v>
       </c>
       <c r="BE16" t="n">
         <v>36</v>
@@ -6181,10 +6181,10 @@
         <v>60</v>
       </c>
       <c r="BG16" t="n">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="BH16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BI16" t="n">
         <v>9</v>
@@ -6193,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="BK16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BL16" t="n">
         <v>1</v>
@@ -6205,22 +6205,22 @@
         <v>5</v>
       </c>
       <c r="BO16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BP16" t="n">
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>123.9</v>
+        <v>130.3</v>
       </c>
       <c r="BR16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS16" t="n">
         <v>3</v>
       </c>
       <c r="BT16" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BU16" t="n">
         <v>1</v>
@@ -6247,10 +6247,10 @@
         <v>2</v>
       </c>
       <c r="CC16" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="CD16" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="CE16" t="n">
         <v>0</v>
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CK16" t="n">
         <v>3</v>
@@ -6301,7 +6301,7 @@
         <v>1</v>
       </c>
       <c r="CU16" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="CV16" t="n">
         <v>24</v>
@@ -6316,13 +6316,13 @@
         <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="DA16" t="n">
         <v>11</v>
       </c>
       <c r="DB16" t="n">
-        <v>52.380952380952</v>
+        <v>47.826086956522</v>
       </c>
       <c r="DC16" t="n">
         <v>0</v>
@@ -6334,16 +6334,16 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>433</v>
+        <v>473</v>
       </c>
       <c r="DG16" t="n">
-        <v>596</v>
+        <v>630</v>
       </c>
       <c r="DH16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="DI16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="DJ16" t="n">
         <v>2156307</v>
@@ -6375,16 +6375,16 @@
         <v>138572</v>
       </c>
       <c r="E17" t="n">
-        <v>6.8428571428571</v>
+        <v>6.8375</v>
       </c>
       <c r="F17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G17" t="n">
         <v>4</v>
       </c>
       <c r="H17" t="n">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -6441,10 +6441,10 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.6957124099999999</v>
+        <v>0.70208412</v>
       </c>
       <c r="AB17" t="n">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="AC17" t="n">
         <v>1</v>
@@ -6453,22 +6453,22 @@
         <v>2</v>
       </c>
       <c r="AE17" t="n">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="AF17" t="n">
-        <v>91.228070175439</v>
+        <v>91.139240506329</v>
       </c>
       <c r="AG17" t="n">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="AH17" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AI17" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="AJ17" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="AK17" t="n">
         <v>9</v>
@@ -6498,13 +6498,13 @@
         <v>5</v>
       </c>
       <c r="AT17" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AU17" t="n">
         <v>1</v>
       </c>
       <c r="AV17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW17" t="n">
         <v>0</v>
@@ -6522,7 +6522,7 @@
         <v>18</v>
       </c>
       <c r="BB17" t="n">
-        <v>60</v>
+        <v>58.064516129032</v>
       </c>
       <c r="BC17" t="n">
         <v>14</v>
@@ -6534,10 +6534,10 @@
         <v>4</v>
       </c>
       <c r="BF17" t="n">
-        <v>66.666666666667</v>
+        <v>57.142857142857</v>
       </c>
       <c r="BG17" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BH17" t="n">
         <v>4</v>
@@ -6567,16 +6567,16 @@
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>47.9</v>
+        <v>54.7</v>
       </c>
       <c r="BR17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS17" t="n">
         <v>0</v>
       </c>
       <c r="BT17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
@@ -6657,10 +6657,10 @@
         <v>2</v>
       </c>
       <c r="CU17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CV17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CW17" t="n">
         <v>0</v>
@@ -6690,16 +6690,16 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="DG17" t="n">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="DH17" t="n">
         <v>0</v>
       </c>
       <c r="DI17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DJ17" t="n">
         <v>2156282</v>
@@ -7443,16 +7443,16 @@
         <v>66492</v>
       </c>
       <c r="E20" t="n">
-        <v>6.725</v>
+        <v>6.8</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -7509,10 +7509,10 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.02301306</v>
+        <v>0.03833456</v>
       </c>
       <c r="AB20" t="n">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -7521,28 +7521,28 @@
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="AF20" t="n">
-        <v>91.428571428571</v>
+        <v>93.61702127659601</v>
       </c>
       <c r="AG20" t="n">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="AH20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI20" t="n">
         <v>37</v>
       </c>
-      <c r="AI20" t="n">
-        <v>27</v>
-      </c>
       <c r="AJ20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK20" t="n">
         <v>3</v>
       </c>
-      <c r="AK20" t="n">
-        <v>1</v>
-      </c>
       <c r="AL20" t="n">
-        <v>20</v>
+        <v>42.857142857143</v>
       </c>
       <c r="AM20" t="n">
         <v>0</v>
@@ -7554,13 +7554,13 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ20" t="n">
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS20" t="n">
         <v>0</v>
@@ -7587,16 +7587,16 @@
         <v>0</v>
       </c>
       <c r="BA20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB20" t="n">
-        <v>50</v>
+        <v>57.142857142857</v>
       </c>
       <c r="BC20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD20" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BE20" t="n">
         <v>3</v>
@@ -7635,10 +7635,10 @@
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>26.9</v>
+        <v>34</v>
       </c>
       <c r="BR20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BS20" t="n">
         <v>0</v>
@@ -7671,10 +7671,10 @@
         <v>0</v>
       </c>
       <c r="CC20" t="n">
+        <v>7</v>
+      </c>
+      <c r="CD20" t="n">
         <v>4</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>1</v>
       </c>
       <c r="CE20" t="n">
         <v>0</v>
@@ -7740,13 +7740,13 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DA20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB20" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7758,10 +7758,10 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="DG20" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="DH20" t="n">
         <v>0</v>
@@ -7799,16 +7799,16 @@
         <v>1085081</v>
       </c>
       <c r="E21" t="n">
-        <v>7.0947368421053</v>
+        <v>7.1</v>
       </c>
       <c r="F21" t="n">
+        <v>21</v>
+      </c>
+      <c r="G21" t="n">
         <v>20</v>
       </c>
-      <c r="G21" t="n">
-        <v>19</v>
-      </c>
       <c r="H21" t="n">
-        <v>1701</v>
+        <v>1791</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -7820,7 +7820,7 @@
         <v>0.2913</v>
       </c>
       <c r="L21" t="n">
-        <v>850.5</v>
+        <v>895.5</v>
       </c>
       <c r="M21" t="n">
         <v>7</v>
@@ -7862,43 +7862,43 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.18274583</v>
+        <v>1.21784633</v>
       </c>
       <c r="AB21" t="n">
-        <v>1687</v>
+        <v>1754</v>
       </c>
       <c r="AC21" t="n">
         <v>1</v>
       </c>
       <c r="AD21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
-        <v>1114</v>
+        <v>1166</v>
       </c>
       <c r="AF21" t="n">
-        <v>90.12944983818799</v>
+        <v>90.31758326878401</v>
       </c>
       <c r="AG21" t="n">
-        <v>1236</v>
+        <v>1291</v>
       </c>
       <c r="AH21" t="n">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="AI21" t="n">
-        <v>707</v>
+        <v>738</v>
       </c>
       <c r="AJ21" t="n">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="AK21" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AL21" t="n">
-        <v>49.180327868852</v>
+        <v>49.206349206349</v>
       </c>
       <c r="AM21" t="n">
         <v>2</v>
@@ -7907,22 +7907,22 @@
         <v>8.3333333333333</v>
       </c>
       <c r="AO21" t="n">
+        <v>31</v>
+      </c>
+      <c r="AP21" t="n">
         <v>30</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>28</v>
       </c>
       <c r="AQ21" t="n">
         <v>7</v>
       </c>
       <c r="AR21" t="n">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AS21" t="n">
         <v>16</v>
       </c>
       <c r="AT21" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AU21" t="n">
         <v>2</v>
@@ -7943,25 +7943,25 @@
         <v>46.666666666667</v>
       </c>
       <c r="BA21" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="BB21" t="n">
-        <v>50.887573964497</v>
+        <v>50.867052023121</v>
       </c>
       <c r="BC21" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="BD21" t="n">
-        <v>51.5625</v>
+        <v>51.908396946565</v>
       </c>
       <c r="BE21" t="n">
         <v>20</v>
       </c>
       <c r="BF21" t="n">
-        <v>48.780487804878</v>
+        <v>47.619047619048</v>
       </c>
       <c r="BG21" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="BH21" t="n">
         <v>15</v>
@@ -7985,22 +7985,22 @@
         <v>10</v>
       </c>
       <c r="BO21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BP21" t="n">
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>134.8</v>
+        <v>142</v>
       </c>
       <c r="BR21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT21" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BU21" t="n">
         <v>1</v>
@@ -8024,10 +8024,10 @@
         <v>2</v>
       </c>
       <c r="CB21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CC21" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CD21" t="n">
         <v>17</v>
@@ -8048,7 +8048,7 @@
         <v>0</v>
       </c>
       <c r="CJ21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CK21" t="n">
         <v>3</v>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="CR21" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CS21" t="n">
         <v>30</v>
@@ -8081,10 +8081,10 @@
         <v>24</v>
       </c>
       <c r="CU21" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="CV21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CW21" t="n">
         <v>0</v>
@@ -8096,13 +8096,13 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="DA21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="DB21" t="n">
-        <v>46.428571428571</v>
+        <v>46.666666666667</v>
       </c>
       <c r="DC21" t="n">
         <v>0</v>
@@ -8114,16 +8114,16 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="DG21" t="n">
-        <v>790</v>
+        <v>824</v>
       </c>
       <c r="DH21" t="n">
         <v>0</v>
       </c>
       <c r="DI21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DJ21" t="n">
         <v>2156327</v>
@@ -8865,16 +8865,16 @@
         <v>70988</v>
       </c>
       <c r="E24" t="n">
-        <v>6.9782608695652</v>
+        <v>6.9791666666667</v>
       </c>
       <c r="F24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H24" t="n">
-        <v>2070</v>
+        <v>2160</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -8929,10 +8929,10 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.02695967</v>
+        <v>0.02794827</v>
       </c>
       <c r="AB24" t="n">
-        <v>863</v>
+        <v>914</v>
       </c>
       <c r="AC24" t="n">
         <v>1</v>
@@ -8941,28 +8941,28 @@
         <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="AF24" t="n">
-        <v>79.197622585438</v>
+        <v>79.440559440559</v>
       </c>
       <c r="AG24" t="n">
-        <v>673</v>
+        <v>715</v>
       </c>
       <c r="AH24" t="n">
-        <v>486</v>
+        <v>518</v>
       </c>
       <c r="AI24" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AJ24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK24" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AL24" t="n">
-        <v>38.938053097345</v>
+        <v>39.330543933054</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
@@ -8980,7 +8980,7 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AS24" t="n">
         <v>3</v>
@@ -9025,7 +9025,7 @@
         <v>75</v>
       </c>
       <c r="BG24" t="n">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="BH24" t="n">
         <v>0</v>
@@ -9043,28 +9043,28 @@
         <v>0</v>
       </c>
       <c r="BM24" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="BN24" t="n">
         <v>11</v>
       </c>
       <c r="BO24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BP24" t="n">
         <v>0</v>
       </c>
       <c r="BQ24" t="n">
-        <v>160.5</v>
+        <v>167.5</v>
       </c>
       <c r="BR24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS24" t="n">
         <v>0</v>
       </c>
       <c r="BT24" t="n">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="BU24" t="n">
         <v>0</v>
@@ -9091,10 +9091,10 @@
         <v>0</v>
       </c>
       <c r="CC24" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="CD24" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="CE24" t="n">
         <v>0</v>
@@ -9103,16 +9103,16 @@
         <v>0</v>
       </c>
       <c r="CG24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CH24" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CI24" t="n">
         <v>19</v>
       </c>
       <c r="CJ24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CK24" t="n">
         <v>3</v>
@@ -9127,7 +9127,7 @@
         <v>12</v>
       </c>
       <c r="CO24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CP24" t="n">
         <v>0</v>
@@ -9160,7 +9160,7 @@
         <v>0</v>
       </c>
       <c r="CZ24" t="n">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="DA24" t="n">
         <v>1</v>
@@ -9175,16 +9175,16 @@
         <v>0</v>
       </c>
       <c r="DE24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="DF24" t="n">
-        <v>514</v>
+        <v>547</v>
       </c>
       <c r="DG24" t="n">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="DH24" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="DI24" t="n">
         <v>0</v>
@@ -9198,7 +9198,7 @@
         </is>
       </c>
       <c r="DL24" t="n">
-        <v>0.2575</v>
+        <v>0.4524</v>
       </c>
     </row>
   </sheetData>
